--- a/ads-app/app/JS-SPA-Self-Evaluation-Protocol-MY.xlsx
+++ b/ads-app/app/JS-SPA-Self-Evaluation-Protocol-MY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1111111111111111111111\Telerik\!!! Училищна академия - Single-page приложения с JavaScript\@_SoftUni Kursov proekt Angular Ads\ads-app\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>14 days</t>
+  </si>
+  <si>
+    <t>da</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,8 +773,8 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
-        <v>10</v>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -782,8 +785,8 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
-        <v>5</v>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
@@ -794,8 +797,8 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5">
-        <v>5</v>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
@@ -816,8 +819,8 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
-        <v>5</v>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
@@ -828,8 +831,8 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
-        <v>5</v>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
@@ -840,8 +843,8 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5">
-        <v>10</v>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
@@ -852,8 +855,8 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
-        <v>5</v>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
@@ -864,8 +867,8 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5">
-        <v>10</v>
+      <c r="C19" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -886,8 +889,8 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5">
-        <v>5</v>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
@@ -898,8 +901,8 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5">
-        <v>5</v>
+      <c r="C22" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
@@ -940,8 +943,8 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5">
-        <v>10</v>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -972,8 +975,8 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5">
-        <v>5</v>
+      <c r="C29" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
@@ -994,8 +997,8 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5">
-        <v>5</v>
+      <c r="C31" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
